--- a/data/trans_dic/P24_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,49%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,42</t>
+          <t>2,37; 22,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,87</t>
+          <t>1,38; 16,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 10,53</t>
+          <t>1,37; 17,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 14,38</t>
+          <t>1,73; 23,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 23,83</t>
+          <t>1,9; 22,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 19,96</t>
+          <t>8,39; 29,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 27,46</t>
+          <t>9,43; 33,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 26,45</t>
+          <t>18,95; 44,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 17,02</t>
+          <t>13,08; 36,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,79</t>
+          <t>9,67; 34,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 17,41</t>
+          <t>7,03; 21,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 19,26</t>
+          <t>7,24; 23,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 28,12</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 26,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 25,15</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 17,69</t>
+          <t>2,71; 25,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,64</t>
+          <t>4,01; 13,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,5</t>
+          <t>4,31; 13,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,07</t>
+          <t>3,72; 11,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 27,55</t>
+          <t>2,53; 10,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 27,42</t>
+          <t>16,1; 28,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 27,67</t>
+          <t>21,05; 33,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 32,96</t>
+          <t>20,94; 33,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,94</t>
+          <t>18,41; 31,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,29</t>
+          <t>19,35; 32,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,62</t>
+          <t>11,39; 22,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,5</t>
+          <t>14,14; 23,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,77; 22,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 19,24</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 20,01</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,5</t>
+          <t>5,18; 16,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,69</t>
+          <t>3,63; 13,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,53</t>
+          <t>6,63; 18,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,73</t>
+          <t>3,52; 13,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 30,02</t>
+          <t>3,02; 12,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 21,25</t>
+          <t>15,84; 29,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,25; 28,81</t>
+          <t>10,49; 22,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,62</t>
+          <t>17,61; 31,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 21,24</t>
+          <t>12,2; 24,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 15,24</t>
+          <t>12,51; 25,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 20,6</t>
+          <t>12,0; 21,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,72</t>
+          <t>8,55; 16,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 23,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 16,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 17,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 25,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 25,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 17,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 18,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 10,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 13,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 10,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 9,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 25,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 25,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 30,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 26,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 27,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 19,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,5</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 21,08</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 17,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 17,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9037</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10294</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15956</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21068</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28490</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35140</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29590</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45017</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30105</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36607</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>42104</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>39884</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>60974</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2451; 22746</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1784; 21713</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1446; 18904</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1970; 26795</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3367; 39610</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9884; 34683</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13440; 48109</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21888; 51688</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16006; 44419</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20690; 73553</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15545; 48578</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19655; 62485</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25122; 62136</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23569; 61807</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33886; 98477</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32869</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31187</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27321</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29762</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85003</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>125401</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>101588</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91344</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>128641</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117872</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>157724</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>132776</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>118666</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>158403</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9933; 94488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17218; 57425</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16214; 52066</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14850; 45984</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12979; 52691</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62884; 111295</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>97764; 157797</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>79432; 127818</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>69071; 116757</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95709; 158823</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86175; 169809</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>126372; 207805</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>104054; 166807</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>89508; 149019</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>119851; 201740</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28809</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25234</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32491</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20199</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22969</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77594</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66005</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>82740</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56258</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71246</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>106403</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>91239</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>115231</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>76457</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>94215</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14814; 46462</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12075; 44184</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18722; 52709</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9688; 37673</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10685; 43260</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56960; 107396</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44928; 95077</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60684; 109140</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39953; 79971</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49720; 99523</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>77461; 137378</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>65074; 121947</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>88584; 144437</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>56384; 101764</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>69188; 129799</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70715</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>65674</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70643</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68688</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>183665</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>219896</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>219469</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>177193</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>244905</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>254380</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>285570</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>290111</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>235007</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>313592</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43559; 136975</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43338; 95022</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>47548; 102461</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35435; 81154</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>43743; 102659</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>151436; 222712</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>180750; 261149</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>182745; 256394</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>146821; 217610</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>198193; 299729</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>212274; 321536</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>235450; 337074</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>247154; 338062</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>194188; 281921</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>263298; 380343</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
